--- a/carbonFootprintCalcWalkvsDrive.xlsx
+++ b/carbonFootprintCalcWalkvsDrive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="710"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" tabRatio="710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="9" r:id="rId1"/>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Car</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Question: is it better to walk/run to pickup groceries from a place that is 1 km away vs going there by car?</t>
   </si>
   <si>
-    <t>CO2 absorbtion time by a fully grown tree</t>
-  </si>
-  <si>
     <t>Car mileage (kpl)</t>
   </si>
   <si>
@@ -261,6 +258,12 @@
   </si>
   <si>
     <t>in city</t>
+  </si>
+  <si>
+    <t>CO2 absorbtion time by a 15 ft wide sugar maple tree</t>
+  </si>
+  <si>
+    <t>Source: http://www.ecosmartlandscapes.org - need to create an account to calculate sequesteration rates of different types of trees</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,6 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -428,7 +432,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -440,7 +447,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ganga Raghu" refreshedDate="43178.010599884263" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:D8" sheet="Constants"/>
+    <worksheetSource ref="A2:D8" sheet="Constants" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Carbon Neutral" numFmtId="0">
@@ -504,7 +511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -850,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1050,16 +1057,16 @@
       </c>
       <c r="B14" s="14">
         <f>Constants!B32</f>
-        <v>10.204280052840158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="20" t="e">
         <f>1/B14</f>
-        <v>9.7998094409577671E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1078,9 +1085,9 @@
       <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="18" t="e">
         <f>B15*B16</f>
-        <v>815.57198782079161</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -1088,9 +1095,9 @@
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="10" t="e">
         <f>B15*Constants!D16</f>
-        <v>0.22539561714202863</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>12</v>
@@ -1102,7 +1109,7 @@
       </c>
       <c r="B20" s="10">
         <f>Constants!A27</f>
-        <v>5.9638356164383566E-2</v>
+        <v>0.12424657534246576</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>17</v>
@@ -1114,7 +1121,7 @@
       </c>
       <c r="B21" s="16">
         <f>B10/B20</f>
-        <v>2.8852037571028744</v>
+        <v>1.3848978034093797</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>20</v>
@@ -1124,9 +1131,9 @@
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="16" t="e">
         <f>B18/B20</f>
-        <v>3.7793734039342359</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>20</v>
@@ -1144,15 +1151,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -1367,120 +1375,124 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="1">
+      <c r="B16" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="15"/>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>A20*0.4535</f>
-        <v>21.768000000000001</v>
+        <v>45.35</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="23" spans="1:6">
+      <c r="A23" s="22">
         <f>A20/12</f>
-        <v>4</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="1:6">
+      <c r="A24" s="22">
         <f>A21/12</f>
-        <v>1.8140000000000001</v>
+        <v>3.7791666666666668</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="9">
         <f>A20/365</f>
-        <v>0.13150684931506848</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="9">
         <f>A21/365</f>
-        <v>5.9638356164383566E-2</v>
+        <v>0.12424657534246576</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="15" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="1">
+        <f>32*1.6093/3.785</f>
+        <v>13.60570673712021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="1">
-        <v>13.60570673712021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="1">
+        <f>24*1.6093/3.785</f>
         <v>10.204280052840158</v>
       </c>
     </row>
